--- a/artifacts/InPreSS/assets/results/Defects4J/Math.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Math.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/FinalD4JResults/All-297-16-4/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000E5631-D9B9-DC4B-9D45-3EB8573A445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE72FE5-3A3E-8A47-A9DB-CE30375CAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15520" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15520" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="167">
   <si>
     <t>Bug ID</t>
   </si>
@@ -60,42 +60,6 @@
   </si>
   <si>
     <t>%New InPreSS Reduction</t>
-  </si>
-  <si>
-    <t>FractionConversionException</t>
-  </si>
-  <si>
-    <t>AssertionFailedError</t>
-  </si>
-  <si>
-    <t>ArrayIndexOutOfBoundsException</t>
-  </si>
-  <si>
-    <t>NullPointerException</t>
-  </si>
-  <si>
-    <t>ArrayStoreException</t>
-  </si>
-  <si>
-    <t>MaxCountExceededException</t>
-  </si>
-  <si>
-    <t>ClassCastException</t>
-  </si>
-  <si>
-    <t>BOBYQAOptimizer$PathIsExploredException</t>
-  </si>
-  <si>
-    <t>TooManyEvaluationsException</t>
-  </si>
-  <si>
-    <t>MathRuntimeException$4</t>
-  </si>
-  <si>
-    <t>IllegalArgumentException</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>%Old Reduction</t>
@@ -576,7 +540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -587,12 +551,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -630,12 +588,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,69 +907,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1026,7 +979,7 @@
         <v>99.838187702265301</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -1044,7 +997,7 @@
         <v>99.871794871794805</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1052,17 +1005,14 @@
       <c r="M2" s="1">
         <v>75</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
+      <c r="N2" t="s">
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1076,7 +1026,7 @@
         <v>77.7777777777777</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1094,7 +1044,7 @@
         <v>81.818181818181799</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1102,17 +1052,14 @@
       <c r="M3" s="1">
         <v>75</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>11</v>
+      <c r="N3" t="s">
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1126,7 +1073,7 @@
         <v>99.890650628758806</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1144,7 +1091,7 @@
         <v>99.798115746971703</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1152,17 +1099,14 @@
       <c r="M4" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>12</v>
+      <c r="N4" t="s">
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1176,7 +1120,7 @@
         <v>55.5555555555555</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1194,7 +1138,7 @@
         <v>27.272727272727199</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1202,17 +1146,14 @@
       <c r="M5" s="1">
         <v>87.5</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>10</v>
+      <c r="N5" t="s">
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1226,7 +1167,7 @@
         <v>97.956535841712594</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>17</v>
@@ -1244,7 +1185,7 @@
         <v>97.671367661528294</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1">
         <v>12</v>
@@ -1252,17 +1193,14 @@
       <c r="M6" s="1">
         <v>83.098591549295705</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>10</v>
+      <c r="N6" t="s">
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1276,7 +1214,7 @@
         <v>99.963966637345393</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1">
         <v>22</v>
@@ -1294,7 +1232,7 @@
         <v>99.752096847498194</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1">
         <v>15</v>
@@ -1302,17 +1240,14 @@
       <c r="M7" s="1">
         <v>75</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>10</v>
+      <c r="N7" t="s">
+        <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1326,7 +1261,7 @@
         <v>99.965439778814499</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1344,7 +1279,7 @@
         <v>99.965415874113702</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1352,17 +1287,14 @@
       <c r="M8" s="1">
         <v>50</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>13</v>
+      <c r="N8" t="s">
+        <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1376,7 +1308,7 @@
         <v>93.478260869565204</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>12</v>
@@ -1394,7 +1326,7 @@
         <v>91.262135922330103</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="1">
         <v>13</v>
@@ -1402,17 +1334,14 @@
       <c r="M9" s="1">
         <v>63.8888888888888</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>10</v>
+      <c r="N9" t="s">
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1426,7 +1355,7 @@
         <v>99.761904761904702</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
@@ -1444,7 +1373,7 @@
         <v>99.809069212410506</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -1452,17 +1381,14 @@
       <c r="M10" s="1">
         <v>25</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>10</v>
+      <c r="N10" t="s">
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1476,7 +1402,7 @@
         <v>99.619260555393495</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -1494,7 +1420,7 @@
         <v>99.3725364009331</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L11" s="1">
         <v>14</v>
@@ -1502,17 +1428,14 @@
       <c r="M11" s="1">
         <v>82.051282051282001</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
+      <c r="N11" t="s">
+        <v>56</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1526,7 +1449,7 @@
         <v>99.669411177644704</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>8</v>
@@ -1544,7 +1467,7 @@
         <v>97.860669226549604</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1">
         <v>13</v>
@@ -1552,17 +1475,14 @@
       <c r="M12" s="1">
         <v>96.296296296296205</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>10</v>
+      <c r="N12" t="s">
+        <v>58</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -1576,7 +1496,7 @@
         <v>84.901777362020496</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>495</v>
@@ -1594,7 +1514,7 @@
         <v>87.721140217334195</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1">
         <v>366</v>
@@ -1602,17 +1522,14 @@
       <c r="M13" s="1">
         <v>84.352287302265907</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>10</v>
+      <c r="N13" t="s">
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>23</v>
       </c>
@@ -1626,7 +1543,7 @@
         <v>85.958254269449696</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1">
         <v>46</v>
@@ -1644,7 +1561,7 @@
         <v>91.899251191286595</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1">
         <v>18</v>
@@ -1652,17 +1569,14 @@
       <c r="M14" s="1">
         <v>84.873949579831901</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>10</v>
+      <c r="N14" t="s">
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>24</v>
       </c>
@@ -1676,7 +1590,7 @@
         <v>93.650793650793602</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1">
         <v>6</v>
@@ -1694,7 +1608,7 @@
         <v>94.207723035952</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L15" s="1">
         <v>4</v>
@@ -1702,17 +1616,14 @@
       <c r="M15" s="1">
         <v>95.402298850574695</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>10</v>
+      <c r="N15" t="s">
+        <v>64</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>27</v>
       </c>
@@ -1726,7 +1637,7 @@
         <v>99.336650082918695</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1744,7 +1655,7 @@
         <v>83.994528043775603</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L16" s="1">
         <v>4</v>
@@ -1752,17 +1663,14 @@
       <c r="M16" s="1">
         <v>96.581196581196494</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>10</v>
+      <c r="N16" t="s">
+        <v>66</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -1776,7 +1684,7 @@
         <v>94.959088252483895</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>52</v>
@@ -1794,7 +1702,7 @@
         <v>99.904367229837405</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
@@ -1802,17 +1710,14 @@
       <c r="M17" s="1">
         <v>77.7777777777777</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>14</v>
+      <c r="N17" t="s">
+        <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>29</v>
       </c>
@@ -1826,7 +1731,7 @@
         <v>86.524399343381504</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1">
         <v>324</v>
@@ -1844,7 +1749,7 @@
         <v>89.920310144303201</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L18" s="1">
         <v>227</v>
@@ -1852,17 +1757,14 @@
       <c r="M18" s="1">
         <v>75.747863247863194</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>10</v>
+      <c r="N18" t="s">
+        <v>69</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30</v>
       </c>
@@ -1876,7 +1778,7 @@
         <v>98.190045248868699</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
@@ -1894,7 +1796,7 @@
         <v>75.464684014869803</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1">
         <v>2</v>
@@ -1902,17 +1804,14 @@
       <c r="M19" s="1">
         <v>98.989898989898904</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>10</v>
+      <c r="N19" t="s">
+        <v>70</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>33</v>
       </c>
@@ -1926,7 +1825,7 @@
         <v>99.907953868644697</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1">
         <v>9</v>
@@ -1944,7 +1843,7 @@
         <v>99.911299126637502</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L20" s="1">
         <v>7</v>
@@ -1952,17 +1851,14 @@
       <c r="M20" s="1">
         <v>46.153846153846096</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>10</v>
+      <c r="N20" t="s">
+        <v>72</v>
       </c>
       <c r="O20" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>34</v>
       </c>
@@ -1976,7 +1872,7 @@
         <v>96.894409937888199</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -1994,7 +1890,7 @@
         <v>97.005988023952099</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
@@ -2002,17 +1898,14 @@
       <c r="M21" s="1">
         <v>40</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>10</v>
+      <c r="N21" t="s">
+        <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
-      </c>
-      <c r="P21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>35</v>
       </c>
@@ -2026,7 +1919,7 @@
         <v>99.876923076923006</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2044,7 +1937,7 @@
         <v>88.235294117647001</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -2052,17 +1945,14 @@
       <c r="M22" s="1">
         <v>50</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>10</v>
+      <c r="N22" t="s">
+        <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
-      </c>
-      <c r="P22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>36</v>
       </c>
@@ -2076,7 +1966,7 @@
         <v>99.738630423418698</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -2094,7 +1984,7 @@
         <v>99.790466212676805</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
@@ -2102,17 +1992,14 @@
       <c r="M23" s="1">
         <v>25</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>10</v>
+      <c r="N23" t="s">
+        <v>77</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -2126,7 +2013,7 @@
         <v>96.577017114914398</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -2144,7 +2031,7 @@
         <v>56.511056511056502</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
@@ -2152,17 +2039,14 @@
       <c r="M24" s="1">
         <v>99.4350282485875</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>10</v>
+      <c r="N24" t="s">
+        <v>79</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
-      </c>
-      <c r="P24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>38</v>
       </c>
@@ -2176,7 +2060,7 @@
         <v>98.190045248868699</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
@@ -2194,7 +2078,7 @@
         <v>75.615763546797993</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L25" s="1">
         <v>2</v>
@@ -2202,17 +2086,14 @@
       <c r="M25" s="1">
         <v>98.989898989898904</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>16</v>
+      <c r="N25" t="s">
+        <v>81</v>
       </c>
       <c r="O25" t="s">
-        <v>93</v>
-      </c>
-      <c r="P25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>39</v>
       </c>
@@ -2226,7 +2107,7 @@
         <v>99.485861182519201</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
@@ -2244,7 +2125,7 @@
         <v>99.203980099502402</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2252,17 +2133,14 @@
       <c r="M26" s="1">
         <v>87.5</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>10</v>
+      <c r="N26" t="s">
+        <v>83</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
-      </c>
-      <c r="P26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -2276,7 +2154,7 @@
         <v>62.376811594202898</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1">
         <v>87</v>
@@ -2294,7 +2172,7 @@
         <v>21.5133644788236</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L27" s="1">
         <v>1315</v>
@@ -2302,17 +2180,14 @@
       <c r="M27" s="1">
         <v>87.168227946916403</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>17</v>
+      <c r="N27" t="s">
+        <v>85</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
-      </c>
-      <c r="P27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41</v>
       </c>
@@ -2326,7 +2201,7 @@
         <v>99.416058394160501</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2344,7 +2219,7 @@
         <v>94.458438287153598</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L28" s="1">
         <v>34</v>
@@ -2352,17 +2227,14 @@
       <c r="M28" s="1">
         <v>22.727272727272702</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>10</v>
+      <c r="N28" t="s">
+        <v>87</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
-      </c>
-      <c r="P28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42</v>
       </c>
@@ -2376,7 +2248,7 @@
         <v>98.753541076487195</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1">
         <v>14</v>
@@ -2394,7 +2266,7 @@
         <v>98.201236649803207</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L29" s="1">
         <v>16</v>
@@ -2402,17 +2274,14 @@
       <c r="M29" s="1">
         <v>75</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>10</v>
+      <c r="N29" t="s">
+        <v>88</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
-      </c>
-      <c r="P29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43</v>
       </c>
@@ -2426,7 +2295,7 @@
         <v>93.677419354838705</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1">
         <v>15</v>
@@ -2444,7 +2313,7 @@
         <v>98.196948682385496</v>
       </c>
       <c r="K30" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L30" s="1">
         <v>9</v>
@@ -2452,17 +2321,14 @@
       <c r="M30" s="1">
         <v>30.769230769230699</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>10</v>
+      <c r="N30" t="s">
+        <v>90</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44</v>
       </c>
@@ -2476,7 +2342,7 @@
         <v>99.922937330648494</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
@@ -2494,7 +2360,7 @@
         <v>99.864820770987706</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -2502,17 +2368,14 @@
       <c r="M31" s="1">
         <v>96.551724137931004</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>10</v>
+      <c r="N31" t="s">
+        <v>92</v>
       </c>
       <c r="O31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>53</v>
       </c>
@@ -2526,7 +2389,7 @@
         <v>95.726495726495699</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1">
         <v>9</v>
@@ -2544,7 +2407,7 @@
         <v>91.338582677165306</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L32" s="1">
         <v>8</v>
@@ -2552,17 +2415,14 @@
       <c r="M32" s="1">
         <v>63.636363636363598</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>10</v>
+      <c r="N32" t="s">
+        <v>94</v>
       </c>
       <c r="O32" t="s">
-        <v>106</v>
-      </c>
-      <c r="P32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>66</v>
       </c>
@@ -2576,7 +2436,7 @@
         <v>90.958230958230899</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
         <v>257</v>
@@ -2594,7 +2454,7 @@
         <v>94.308819041806501</v>
       </c>
       <c r="K33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L33" s="1">
         <v>178</v>
@@ -2602,17 +2462,14 @@
       <c r="M33" s="1">
         <v>52.278820375335101</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>10</v>
+      <c r="N33" t="s">
+        <v>96</v>
       </c>
       <c r="O33" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>67</v>
       </c>
@@ -2626,7 +2483,7 @@
         <v>99.976749593117802</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2644,7 +2501,7 @@
         <v>99.953287399275894</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L34" s="1">
         <v>3</v>
@@ -2652,17 +2509,14 @@
       <c r="M34" s="1">
         <v>25</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>10</v>
+      <c r="N34" t="s">
+        <v>98</v>
       </c>
       <c r="O34" t="s">
-        <v>110</v>
-      </c>
-      <c r="P34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>70</v>
       </c>
@@ -2676,7 +2530,7 @@
         <v>87.320436697950498</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2694,7 +2548,7 @@
         <v>78.250352751461307</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L35" s="1">
         <v>4</v>
@@ -2702,17 +2556,14 @@
       <c r="M35" s="1">
         <v>99.629286376274294</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>12</v>
+      <c r="N35" t="s">
+        <v>100</v>
       </c>
       <c r="O35" t="s">
-        <v>112</v>
-      </c>
-      <c r="P35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>71</v>
       </c>
@@ -2726,7 +2577,7 @@
         <v>95.8374628344896</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1">
         <v>42</v>
@@ -2744,7 +2595,7 @@
         <v>94.915254237288096</v>
       </c>
       <c r="K36" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L36" s="1">
         <v>3</v>
@@ -2752,17 +2603,14 @@
       <c r="M36" s="1">
         <v>75</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>10</v>
+      <c r="N36" t="s">
+        <v>101</v>
       </c>
       <c r="O36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>72</v>
       </c>
@@ -2776,7 +2624,7 @@
         <v>95.8752695902228</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -2794,7 +2642,7 @@
         <v>85.826345685691095</v>
       </c>
       <c r="K37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L37" s="1">
         <v>2</v>
@@ -2802,17 +2650,14 @@
       <c r="M37" s="1">
         <v>99.872773536895593</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>10</v>
+      <c r="N37" t="s">
+        <v>103</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
-      </c>
-      <c r="P37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>73</v>
       </c>
@@ -2826,7 +2671,7 @@
         <v>99.972877678329198</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
@@ -2844,7 +2689,7 @@
         <v>86.280176810608594</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -2852,17 +2697,14 @@
       <c r="M38" s="1">
         <v>99.938042131350599</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>10</v>
+      <c r="N38" t="s">
+        <v>105</v>
       </c>
       <c r="O38" t="s">
-        <v>117</v>
-      </c>
-      <c r="P38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>74</v>
       </c>
@@ -2876,7 +2718,7 @@
         <v>96.302665520206304</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="1">
         <v>42</v>
@@ -2894,7 +2736,7 @@
         <v>96.5699208443271</v>
       </c>
       <c r="K39" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -2902,17 +2744,14 @@
       <c r="M39" s="1">
         <v>76.923076923076906</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>10</v>
+      <c r="N39" t="s">
+        <v>106</v>
       </c>
       <c r="O39" t="s">
-        <v>118</v>
-      </c>
-      <c r="P39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>75</v>
       </c>
@@ -2926,7 +2765,7 @@
         <v>86.900958466453602</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -2944,7 +2783,7 @@
         <v>79.016026835631706</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L40" s="1">
         <v>3</v>
@@ -2952,17 +2791,14 @@
       <c r="M40" s="1">
         <v>99.467140319715796</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>10</v>
+      <c r="N40" t="s">
+        <v>108</v>
       </c>
       <c r="O40" t="s">
-        <v>120</v>
-      </c>
-      <c r="P40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>76</v>
       </c>
@@ -2976,7 +2812,7 @@
         <v>98.017717744057506</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1">
         <v>43</v>
@@ -2994,7 +2830,7 @@
         <v>81.535181236673694</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L41" s="1">
         <v>36</v>
@@ -3002,17 +2838,14 @@
       <c r="M41" s="1">
         <v>91.685912240184706</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>10</v>
+      <c r="N41" t="s">
+        <v>110</v>
       </c>
       <c r="O41" t="s">
-        <v>122</v>
-      </c>
-      <c r="P41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>77</v>
       </c>
@@ -3026,7 +2859,7 @@
         <v>61.911902530459201</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1">
         <v>29</v>
@@ -3044,7 +2877,7 @@
         <v>64.1895681435782</v>
       </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L42" s="1">
         <v>18</v>
@@ -3052,17 +2885,14 @@
       <c r="M42" s="1">
         <v>98.590446358653097</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>10</v>
+      <c r="N42" t="s">
+        <v>111</v>
       </c>
       <c r="O42" t="s">
-        <v>123</v>
-      </c>
-      <c r="P42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>78</v>
       </c>
@@ -3076,7 +2906,7 @@
         <v>97.347740667976396</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1">
         <v>13</v>
@@ -3094,7 +2924,7 @@
         <v>96.521739130434696</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L43" s="1">
         <v>4</v>
@@ -3102,17 +2932,14 @@
       <c r="M43" s="1">
         <v>83.3333333333333</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>18</v>
+      <c r="N43" t="s">
+        <v>113</v>
       </c>
       <c r="O43" t="s">
-        <v>125</v>
-      </c>
-      <c r="P43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>79</v>
       </c>
@@ -3126,7 +2953,7 @@
         <v>95.498392282958207</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F44" s="1">
         <v>5</v>
@@ -3144,7 +2971,7 @@
         <v>77.419354838709594</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L44" s="1">
         <v>5</v>
@@ -3152,17 +2979,14 @@
       <c r="M44" s="1">
         <v>64.285714285714207</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>12</v>
+      <c r="N44" t="s">
+        <v>115</v>
       </c>
       <c r="O44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>80</v>
       </c>
@@ -3176,7 +3000,7 @@
         <v>79.139967575079098</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -3194,7 +3018,7 @@
         <v>95.986024213861995</v>
       </c>
       <c r="K45" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L45" s="1">
         <v>60</v>
@@ -3202,17 +3026,14 @@
       <c r="M45" s="1">
         <v>95.951417004048494</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>10</v>
+      <c r="N45" t="s">
+        <v>117</v>
       </c>
       <c r="O45" t="s">
-        <v>129</v>
-      </c>
-      <c r="P45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>81</v>
       </c>
@@ -3226,7 +3047,7 @@
         <v>77.297297297297206</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F46" s="1">
         <v>111</v>
@@ -3244,7 +3065,7 @@
         <v>89.451476793248901</v>
       </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L46" s="1">
         <v>5</v>
@@ -3252,17 +3073,14 @@
       <c r="M46" s="1">
         <v>90</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>11</v>
+      <c r="N46" t="s">
+        <v>119</v>
       </c>
       <c r="O46" t="s">
-        <v>131</v>
-      </c>
-      <c r="P46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>82</v>
       </c>
@@ -3276,7 +3094,7 @@
         <v>99.949051076296001</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -3294,7 +3112,7 @@
         <v>77.017778627413406</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
@@ -3302,17 +3120,14 @@
       <c r="M47" s="1">
         <v>99.983363832972799</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>10</v>
+      <c r="N47" t="s">
+        <v>120</v>
       </c>
       <c r="O47" t="s">
-        <v>132</v>
-      </c>
-      <c r="P47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>83</v>
       </c>
@@ -3326,7 +3141,7 @@
         <v>92.047589229805794</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1">
         <v>20</v>
@@ -3344,7 +3159,7 @@
         <v>93.206349206349202</v>
       </c>
       <c r="K48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L48" s="1">
         <v>26</v>
@@ -3352,17 +3167,14 @@
       <c r="M48" s="1">
         <v>75.700934579439206</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>10</v>
+      <c r="N48" t="s">
+        <v>121</v>
       </c>
       <c r="O48" t="s">
-        <v>133</v>
-      </c>
-      <c r="P48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>84</v>
       </c>
@@ -3376,7 +3188,7 @@
         <v>99.679686092370503</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1">
         <v>104</v>
@@ -3394,7 +3206,7 @@
         <v>94.072249589490895</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L49" s="1">
         <v>28</v>
@@ -3402,17 +3214,14 @@
       <c r="M49" s="1">
         <v>96.121883656509695</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>10</v>
+      <c r="N49" t="s">
+        <v>123</v>
       </c>
       <c r="O49" t="s">
-        <v>135</v>
-      </c>
-      <c r="P49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>87</v>
       </c>
@@ -3426,7 +3235,7 @@
         <v>96.153846153846104</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1">
         <v>15</v>
@@ -3444,7 +3253,7 @@
         <v>95.221027479091902</v>
       </c>
       <c r="K50" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L50" s="1">
         <v>11</v>
@@ -3452,17 +3261,14 @@
       <c r="M50" s="1">
         <v>72.5</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>10</v>
+      <c r="N50" t="s">
+        <v>125</v>
       </c>
       <c r="O50" t="s">
-        <v>137</v>
-      </c>
-      <c r="P50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>88</v>
       </c>
@@ -3476,7 +3282,7 @@
         <v>96.3541666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F51" s="1">
         <v>40</v>
@@ -3494,7 +3300,7 @@
         <v>96.833773087071194</v>
       </c>
       <c r="K51" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L51" s="1">
         <v>1</v>
@@ -3502,17 +3308,14 @@
       <c r="M51" s="1">
         <v>91.6666666666666</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>10</v>
+      <c r="N51" t="s">
+        <v>127</v>
       </c>
       <c r="O51" t="s">
-        <v>139</v>
-      </c>
-      <c r="P51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>89</v>
       </c>
@@ -3526,7 +3329,7 @@
         <v>71.091035441278606</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -3544,7 +3347,7 @@
         <v>60.091100210231197</v>
       </c>
       <c r="K52" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L52" s="1">
         <v>2</v>
@@ -3552,17 +3355,14 @@
       <c r="M52" s="1">
         <v>99.8244073748902</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>15</v>
+      <c r="N52" t="s">
+        <v>129</v>
       </c>
       <c r="O52" t="s">
-        <v>141</v>
-      </c>
-      <c r="P52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>90</v>
       </c>
@@ -3576,7 +3376,7 @@
         <v>71.408695652173904</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -3594,7 +3394,7 @@
         <v>55.866900175131299</v>
       </c>
       <c r="K53" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L53" s="1">
         <v>1</v>
@@ -3602,17 +3402,14 @@
       <c r="M53" s="1">
         <v>99.920634920634896</v>
       </c>
-      <c r="N53" s="2" t="s">
-        <v>19</v>
+      <c r="N53" t="s">
+        <v>131</v>
       </c>
       <c r="O53" t="s">
-        <v>143</v>
-      </c>
-      <c r="P53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>91</v>
       </c>
@@ -3626,7 +3423,7 @@
         <v>94.733320588797497</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1">
         <v>11</v>
@@ -3644,7 +3441,7 @@
         <v>64.596570009076501</v>
       </c>
       <c r="K54" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L54" s="1">
         <v>15</v>
@@ -3652,17 +3449,14 @@
       <c r="M54" s="1">
         <v>99.797598164890005</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>10</v>
+      <c r="N54" t="s">
+        <v>132</v>
       </c>
       <c r="O54" t="s">
-        <v>144</v>
-      </c>
-      <c r="P54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>93</v>
       </c>
@@ -3676,7 +3470,7 @@
         <v>99.980622032748698</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -3694,7 +3488,7 @@
         <v>78.232842186894104</v>
       </c>
       <c r="K55" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L55" s="1">
         <v>2</v>
@@ -3702,17 +3496,14 @@
       <c r="M55" s="1">
         <v>99.955466488532593</v>
       </c>
-      <c r="N55" s="2" t="s">
-        <v>10</v>
+      <c r="N55" t="s">
+        <v>134</v>
       </c>
       <c r="O55" t="s">
-        <v>146</v>
-      </c>
-      <c r="P55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>96</v>
       </c>
@@ -3726,7 +3517,7 @@
         <v>93.613581244947397</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F56" s="1">
         <v>9</v>
@@ -3744,7 +3535,7 @@
         <v>69.443163477057794</v>
       </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L56" s="1">
         <v>40</v>
@@ -3752,17 +3543,14 @@
       <c r="M56" s="1">
         <v>99.245425391435504</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>10</v>
+      <c r="N56" t="s">
+        <v>135</v>
       </c>
       <c r="O56" t="s">
-        <v>147</v>
-      </c>
-      <c r="P56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>97</v>
       </c>
@@ -3776,7 +3564,7 @@
         <v>98.040560399725607</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F57" s="1">
         <v>26</v>
@@ -3794,7 +3582,7 @@
         <v>24.397442203639901</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L57" s="1">
         <v>184</v>
@@ -3802,17 +3590,14 @@
       <c r="M57" s="1">
         <v>97.605725439167202</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>19</v>
+      <c r="N57" t="s">
+        <v>137</v>
       </c>
       <c r="O57" t="s">
-        <v>149</v>
-      </c>
-      <c r="P57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>98</v>
       </c>
@@ -3826,7 +3611,7 @@
         <v>99.981720970616394</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -3844,7 +3629,7 @@
         <v>69.103460887852606</v>
       </c>
       <c r="K58" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L58" s="1">
         <v>2</v>
@@ -3852,17 +3637,14 @@
       <c r="M58" s="1">
         <v>99.970405445398001</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>11</v>
+      <c r="N58" t="s">
+        <v>138</v>
       </c>
       <c r="O58" t="s">
-        <v>150</v>
-      </c>
-      <c r="P58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>99</v>
       </c>
@@ -3876,7 +3658,7 @@
         <v>69.951923076922995</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F59" s="1">
         <v>111</v>
@@ -3894,7 +3676,7 @@
         <v>85.373134328358205</v>
       </c>
       <c r="K59" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L59" s="1">
         <v>5</v>
@@ -3902,17 +3684,14 @@
       <c r="M59" s="1">
         <v>89.7959183673469</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>10</v>
+      <c r="N59" t="s">
+        <v>140</v>
       </c>
       <c r="O59" t="s">
-        <v>152</v>
-      </c>
-      <c r="P59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>100</v>
       </c>
@@ -3926,7 +3705,7 @@
         <v>99.187652315190903</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -3944,7 +3723,7 @@
         <v>99.515287099179702</v>
       </c>
       <c r="K60" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L60" s="1">
         <v>4</v>
@@ -3952,17 +3731,14 @@
       <c r="M60" s="1">
         <v>69.230769230769198</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>11</v>
+      <c r="N60" t="s">
+        <v>142</v>
       </c>
       <c r="O60" t="s">
-        <v>154</v>
-      </c>
-      <c r="P60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>102</v>
       </c>
@@ -3976,7 +3752,7 @@
         <v>77.638640429338096</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F61" s="1">
         <v>109</v>
@@ -3994,7 +3770,7 @@
         <v>89.7489539748954</v>
       </c>
       <c r="K61" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L61" s="1">
         <v>3</v>
@@ -4002,17 +3778,14 @@
       <c r="M61" s="1">
         <v>93.877551020408106</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>10</v>
+      <c r="N61" t="s">
+        <v>39</v>
       </c>
       <c r="O61" t="s">
-        <v>51</v>
-      </c>
-      <c r="P61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>104</v>
       </c>
@@ -4026,7 +3799,7 @@
         <v>81.614349775784703</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
@@ -4044,7 +3817,7 @@
         <v>88.235294117647001</v>
       </c>
       <c r="K62" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L62" s="1">
         <v>2</v>
@@ -4052,17 +3825,14 @@
       <c r="M62" s="1">
         <v>90.909090909090907</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>10</v>
+      <c r="N62" t="s">
+        <v>144</v>
       </c>
       <c r="O62" t="s">
-        <v>156</v>
-      </c>
-      <c r="P62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>105</v>
       </c>
@@ -4076,7 +3846,7 @@
         <v>96.721311475409806</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1">
         <v>2</v>
@@ -4094,7 +3864,7 @@
         <v>96.6666666666666</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L63" s="1">
         <v>2</v>
@@ -4102,17 +3872,14 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" s="2" t="s">
-        <v>10</v>
+      <c r="N63" t="s">
+        <v>146</v>
       </c>
       <c r="O63" t="s">
-        <v>158</v>
-      </c>
-      <c r="P63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>106</v>
       </c>
@@ -4126,7 +3893,7 @@
         <v>97.872340425531902</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
@@ -4144,7 +3911,7 @@
         <v>79.259259259259196</v>
       </c>
       <c r="K64" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L64" s="1">
         <v>3</v>
@@ -4152,14 +3919,11 @@
       <c r="M64" s="1">
         <v>94.642857142857096</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>10</v>
+      <c r="N64" t="s">
+        <v>148</v>
       </c>
       <c r="O64" t="s">
-        <v>160</v>
-      </c>
-      <c r="P64" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4174,65 +3938,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002EAFE7-DD79-2740-A4A9-07DB02EAA02D}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="R1" s="3"/>
+      <c r="K1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">

--- a/artifacts/InPreSS/assets/results/Defects4J/Math.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Math.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE72FE5-3A3E-8A47-A9DB-CE30375CAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE678EB-0F9C-8445-9849-117EF9C39AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15520" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Bug ID</t>
   </si>
@@ -75,414 +75,6 @@
   </si>
   <si>
     <t># New unmathched block</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>0.0027333333333333333</t>
-  </si>
-  <si>
-    <t>3.3333333333333335E-5</t>
-  </si>
-  <si>
-    <t>0.0026333333333333334</t>
-  </si>
-  <si>
-    <t>5.0E-5</t>
-  </si>
-  <si>
-    <t>0.0018333333333333333</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.002033333333333333</t>
-  </si>
-  <si>
-    <t>8.333333333333333E-5</t>
-  </si>
-  <si>
-    <t>0.23521666666666666</t>
-  </si>
-  <si>
-    <t>0.0015833333333333333</t>
-  </si>
-  <si>
-    <t>0.0126</t>
-  </si>
-  <si>
-    <t>2.8333333333333335E-4</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>2.1666666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.003933333333333333</t>
-  </si>
-  <si>
-    <t>4.8333333333333334E-4</t>
-  </si>
-  <si>
-    <t>0.36195</t>
-  </si>
-  <si>
-    <t>0.1856</t>
-  </si>
-  <si>
-    <t>0.2554166666666667</t>
-  </si>
-  <si>
-    <t>0.023016666666666668</t>
-  </si>
-  <si>
-    <t>0.13568333333333332</t>
-  </si>
-  <si>
-    <t>0.002316666666666667</t>
-  </si>
-  <si>
-    <t>0.011666666666666665</t>
-  </si>
-  <si>
-    <t>0.0029166666666666664</t>
-  </si>
-  <si>
-    <t>1.9996666666666667</t>
-  </si>
-  <si>
-    <t>0.5602333333333332</t>
-  </si>
-  <si>
-    <t>0.0016333333333333334</t>
-  </si>
-  <si>
-    <t>1.0E-4</t>
-  </si>
-  <si>
-    <t>9.5E-4</t>
-  </si>
-  <si>
-    <t>1.6666666666666667E-5</t>
-  </si>
-  <si>
-    <t>4.333333333333333E-4</t>
-  </si>
-  <si>
-    <t>0.005533333333333334</t>
-  </si>
-  <si>
-    <t>2.1610666666666662</t>
-  </si>
-  <si>
-    <t>0.026883333333333332</t>
-  </si>
-  <si>
-    <t>0.00205</t>
-  </si>
-  <si>
-    <t>1.1666666666666667E-4</t>
-  </si>
-  <si>
-    <t>0.04753333333333333</t>
-  </si>
-  <si>
-    <t>0.01983333333333333</t>
-  </si>
-  <si>
-    <t>0.0021333333333333334</t>
-  </si>
-  <si>
-    <t>0.0014166666666666668</t>
-  </si>
-  <si>
-    <t>1.3333333333333334E-4</t>
-  </si>
-  <si>
-    <t>0.3080666666666667</t>
-  </si>
-  <si>
-    <t>9.166666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.024066666666666667</t>
-  </si>
-  <si>
-    <t>0.011433333333333334</t>
-  </si>
-  <si>
-    <t>0.4147</t>
-  </si>
-  <si>
-    <t>0.05591666666666666</t>
-  </si>
-  <si>
-    <t>0.028183333333333335</t>
-  </si>
-  <si>
-    <t>6.666666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.0229</t>
-  </si>
-  <si>
-    <t>0.024550000000000002</t>
-  </si>
-  <si>
-    <t>2.666666666666667E-4</t>
-  </si>
-  <si>
-    <t>0.27551666666666663</t>
-  </si>
-  <si>
-    <t>0.03635</t>
-  </si>
-  <si>
-    <t>3.0745333333333336</t>
-  </si>
-  <si>
-    <t>0.013116666666666667</t>
-  </si>
-  <si>
-    <t>0.0016166666666666666</t>
-  </si>
-  <si>
-    <t>4.6666666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.019166666666666665</t>
-  </si>
-  <si>
-    <t>0.004683333333333334</t>
-  </si>
-  <si>
-    <t>0.005566666666666667</t>
-  </si>
-  <si>
-    <t>0.0028833333333333332</t>
-  </si>
-  <si>
-    <t>0.0021833333333333336</t>
-  </si>
-  <si>
-    <t>0.14211666666666664</t>
-  </si>
-  <si>
-    <t>0.04796666666666667</t>
-  </si>
-  <si>
-    <t>0.053483333333333334</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>0.00245</t>
-  </si>
-  <si>
-    <t>0.9571000000000001</t>
-  </si>
-  <si>
-    <t>0.007566666666666667</t>
-  </si>
-  <si>
-    <t>0.002266666666666667</t>
-  </si>
-  <si>
-    <t>6.166666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.02538333333333333</t>
-  </si>
-  <si>
-    <t>2.1239666666666666</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>1.7526166666666667</t>
-  </si>
-  <si>
-    <t>3.5E-4</t>
-  </si>
-  <si>
-    <t>0.6036666666666667</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>0.006816666666666666</t>
-  </si>
-  <si>
-    <t>0.0011833333333333333</t>
-  </si>
-  <si>
-    <t>8.961366666666667</t>
-  </si>
-  <si>
-    <t>0.0023499999999999997</t>
-  </si>
-  <si>
-    <t>54.0371</t>
-  </si>
-  <si>
-    <t>0.0011166666666666666</t>
-  </si>
-  <si>
-    <t>0.1672</t>
-  </si>
-  <si>
-    <t>0.04713333333333333</t>
-  </si>
-  <si>
-    <t>0.0036166666666666665</t>
-  </si>
-  <si>
-    <t>5.833333333333334E-4</t>
-  </si>
-  <si>
-    <t>0.0022500000000000003</t>
-  </si>
-  <si>
-    <t>7.333333333333333E-4</t>
-  </si>
-  <si>
-    <t>0.04643333333333333</t>
-  </si>
-  <si>
-    <t>0.01718333333333333</t>
-  </si>
-  <si>
-    <t>0.028383333333333333</t>
-  </si>
-  <si>
-    <t>0.1831</t>
-  </si>
-  <si>
-    <t>0.03188333333333333</t>
-  </si>
-  <si>
-    <t>0.0014833333333333332</t>
-  </si>
-  <si>
-    <t>0.009899999999999999</t>
-  </si>
-  <si>
-    <t>0.0014</t>
-  </si>
-  <si>
-    <t>4.46965</t>
-  </si>
-  <si>
-    <t>7.581466666666667</t>
-  </si>
-  <si>
-    <t>0.0011</t>
-  </si>
-  <si>
-    <t>0.5458999999999999</t>
-  </si>
-  <si>
-    <t>0.0073</t>
-  </si>
-  <si>
-    <t>0.0037333333333333333</t>
-  </si>
-  <si>
-    <t>0.0013333333333333333</t>
-  </si>
-  <si>
-    <t>0.004783333333333333</t>
-  </si>
-  <si>
-    <t>5.333333333333334E-4</t>
-  </si>
-  <si>
-    <t>4.941966666666667</t>
-  </si>
-  <si>
-    <t>0.0069166666666666664</t>
-  </si>
-  <si>
-    <t>6.0E-4</t>
-  </si>
-  <si>
-    <t>1.8333333333333334E-4</t>
   </si>
   <si>
     <t>DSlice Time (Min)</t>
@@ -588,11 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -899,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -909,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="A1:O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -950,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -959,10 +553,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -978,8 +572,8 @@
       <c r="D2" s="1">
         <v>99.838187702265301</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="E2" s="4">
+        <v>2</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -996,8 +590,8 @@
       <c r="J2" s="1">
         <v>99.871794871794805</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1005,11 +599,11 @@
       <c r="M2" s="1">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
+      <c r="N2" s="4">
+        <v>2.7333333333333298E-3</v>
+      </c>
+      <c r="O2" s="5">
+        <v>3.3333333333333301E-5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1025,8 +619,8 @@
       <c r="D3" s="1">
         <v>77.7777777777777</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
+      <c r="E3" s="4">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1043,8 +637,8 @@
       <c r="J3" s="1">
         <v>81.818181818181799</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1052,11 +646,11 @@
       <c r="M3" s="1">
         <v>75</v>
       </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
+      <c r="N3" s="4">
+        <v>2.63333333333333E-3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1072,8 +666,8 @@
       <c r="D4" s="1">
         <v>99.890650628758806</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4" s="4">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1090,8 +684,8 @@
       <c r="J4" s="1">
         <v>99.798115746971703</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1099,11 +693,11 @@
       <c r="M4" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
+      <c r="N4" s="4">
+        <v>1.83333333333333E-3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1119,8 +713,8 @@
       <c r="D5" s="1">
         <v>55.5555555555555</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
+      <c r="E5" s="4">
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1137,8 +731,8 @@
       <c r="J5" s="1">
         <v>27.272727272727199</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
+      <c r="K5" s="4">
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1146,11 +740,11 @@
       <c r="M5" s="1">
         <v>87.5</v>
       </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
+      <c r="N5" s="4">
+        <v>2.0333333333333301E-3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1166,8 +760,8 @@
       <c r="D6" s="1">
         <v>97.956535841712594</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6" s="4">
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>17</v>
@@ -1184,8 +778,8 @@
       <c r="J6" s="1">
         <v>97.671367661528294</v>
       </c>
-      <c r="K6" t="s">
-        <v>23</v>
+      <c r="K6" s="4">
+        <v>6</v>
       </c>
       <c r="L6" s="1">
         <v>12</v>
@@ -1193,11 +787,11 @@
       <c r="M6" s="1">
         <v>83.098591549295705</v>
       </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" t="s">
-        <v>47</v>
+      <c r="N6" s="4">
+        <v>0.23521666666666599</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1.58333333333333E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1213,8 +807,8 @@
       <c r="D7" s="1">
         <v>99.963966637345393</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="E7" s="4">
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>22</v>
@@ -1231,8 +825,8 @@
       <c r="J7" s="1">
         <v>99.752096847498194</v>
       </c>
-      <c r="K7" t="s">
-        <v>17</v>
+      <c r="K7" s="4">
+        <v>3</v>
       </c>
       <c r="L7" s="1">
         <v>15</v>
@@ -1240,11 +834,11 @@
       <c r="M7" s="1">
         <v>75</v>
       </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
-        <v>49</v>
+      <c r="N7" s="4">
+        <v>1.26E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2.8333333333333297E-4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1260,8 +854,8 @@
       <c r="D8" s="1">
         <v>99.965439778814499</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
+      <c r="E8" s="4">
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1278,8 +872,8 @@
       <c r="J8" s="1">
         <v>99.965415874113702</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1287,11 +881,11 @@
       <c r="M8" s="1">
         <v>50</v>
       </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>51</v>
+      <c r="N8" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.1666666666666601E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1307,8 +901,8 @@
       <c r="D9" s="1">
         <v>93.478260869565204</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
+      <c r="E9" s="4">
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>12</v>
@@ -1325,8 +919,8 @@
       <c r="J9" s="1">
         <v>91.262135922330103</v>
       </c>
-      <c r="K9" t="s">
-        <v>18</v>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>13</v>
@@ -1334,11 +928,11 @@
       <c r="M9" s="1">
         <v>63.8888888888888</v>
       </c>
-      <c r="N9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
+      <c r="N9" s="4">
+        <v>3.9333333333333304E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4.8333333333333301E-4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1354,8 +948,8 @@
       <c r="D10" s="1">
         <v>99.761904761904702</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
@@ -1372,8 +966,8 @@
       <c r="J10" s="1">
         <v>99.809069212410506</v>
       </c>
-      <c r="K10" t="s">
-        <v>18</v>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -1381,11 +975,11 @@
       <c r="M10" s="1">
         <v>25</v>
       </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>55</v>
+      <c r="N10" s="4">
+        <v>0.36194999999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.18559999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1401,8 +995,8 @@
       <c r="D11" s="1">
         <v>99.619260555393495</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
+      <c r="E11" s="4">
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -1419,8 +1013,8 @@
       <c r="J11" s="1">
         <v>99.3725364009331</v>
       </c>
-      <c r="K11" t="s">
-        <v>17</v>
+      <c r="K11" s="4">
+        <v>3</v>
       </c>
       <c r="L11" s="1">
         <v>14</v>
@@ -1428,11 +1022,11 @@
       <c r="M11" s="1">
         <v>82.051282051282001</v>
       </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
-        <v>57</v>
+      <c r="N11" s="4">
+        <v>0.25541666666666601</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.3016666666666599E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1448,8 +1042,8 @@
       <c r="D12" s="1">
         <v>99.669411177644704</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
+      <c r="E12" s="4">
+        <v>16</v>
       </c>
       <c r="F12" s="1">
         <v>8</v>
@@ -1466,8 +1060,8 @@
       <c r="J12" s="1">
         <v>97.860669226549604</v>
       </c>
-      <c r="K12" t="s">
-        <v>15</v>
+      <c r="K12" s="4">
+        <v>1</v>
       </c>
       <c r="L12" s="1">
         <v>13</v>
@@ -1475,11 +1069,11 @@
       <c r="M12" s="1">
         <v>96.296296296296205</v>
       </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" t="s">
-        <v>59</v>
+      <c r="N12" s="4">
+        <v>0.13568333333333299</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.31666666666666E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1495,8 +1089,8 @@
       <c r="D13" s="1">
         <v>84.901777362020496</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
+      <c r="E13" s="4">
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>495</v>
@@ -1513,8 +1107,8 @@
       <c r="J13" s="1">
         <v>87.721140217334195</v>
       </c>
-      <c r="K13" t="s">
-        <v>15</v>
+      <c r="K13" s="4">
+        <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>366</v>
@@ -1522,11 +1116,11 @@
       <c r="M13" s="1">
         <v>84.352287302265907</v>
       </c>
-      <c r="N13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" t="s">
-        <v>61</v>
+      <c r="N13" s="4">
+        <v>1.16666666666666E-2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2.9166666666666599E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1542,8 +1136,8 @@
       <c r="D14" s="1">
         <v>85.958254269449696</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
+      <c r="E14" s="4">
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>46</v>
@@ -1560,8 +1154,8 @@
       <c r="J14" s="1">
         <v>91.899251191286595</v>
       </c>
-      <c r="K14" t="s">
-        <v>29</v>
+      <c r="K14" s="4">
+        <v>13</v>
       </c>
       <c r="L14" s="1">
         <v>18</v>
@@ -1569,11 +1163,11 @@
       <c r="M14" s="1">
         <v>84.873949579831901</v>
       </c>
-      <c r="N14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" t="s">
-        <v>63</v>
+      <c r="N14" s="4">
+        <v>1.99966666666666</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.56023333333333303</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1589,8 +1183,8 @@
       <c r="D15" s="1">
         <v>93.650793650793602</v>
       </c>
-      <c r="E15" t="s">
-        <v>18</v>
+      <c r="E15" s="4">
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>6</v>
@@ -1607,8 +1201,8 @@
       <c r="J15" s="1">
         <v>94.207723035952</v>
       </c>
-      <c r="K15" t="s">
-        <v>18</v>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>4</v>
@@ -1616,11 +1210,11 @@
       <c r="M15" s="1">
         <v>95.402298850574695</v>
       </c>
-      <c r="N15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" t="s">
-        <v>65</v>
+      <c r="N15" s="4">
+        <v>1.63333333333333E-3</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1636,8 +1230,8 @@
       <c r="D16" s="1">
         <v>99.336650082918695</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
+      <c r="E16" s="4">
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1654,8 +1248,8 @@
       <c r="J16" s="1">
         <v>83.994528043775603</v>
       </c>
-      <c r="K16" t="s">
-        <v>15</v>
+      <c r="K16" s="4">
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>4</v>
@@ -1663,11 +1257,11 @@
       <c r="M16" s="1">
         <v>96.581196581196494</v>
       </c>
-      <c r="N16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" t="s">
-        <v>67</v>
+      <c r="N16" s="5">
+        <v>9.5E-4</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1.66666666666666E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1683,8 +1277,8 @@
       <c r="D17" s="1">
         <v>94.959088252483895</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
+      <c r="E17" s="4">
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>52</v>
@@ -1701,8 +1295,8 @@
       <c r="J17" s="1">
         <v>99.904367229837405</v>
       </c>
-      <c r="K17" t="s">
-        <v>15</v>
+      <c r="K17" s="4">
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
@@ -1710,11 +1304,11 @@
       <c r="M17" s="1">
         <v>77.7777777777777</v>
       </c>
-      <c r="N17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" t="s">
-        <v>67</v>
+      <c r="N17" s="5">
+        <v>4.3333333333333299E-4</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1.66666666666666E-5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1730,8 +1324,8 @@
       <c r="D18" s="1">
         <v>86.524399343381504</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
+      <c r="E18" s="4">
+        <v>2</v>
       </c>
       <c r="F18" s="1">
         <v>324</v>
@@ -1748,8 +1342,8 @@
       <c r="J18" s="1">
         <v>89.920310144303201</v>
       </c>
-      <c r="K18" t="s">
-        <v>17</v>
+      <c r="K18" s="4">
+        <v>3</v>
       </c>
       <c r="L18" s="1">
         <v>227</v>
@@ -1757,11 +1351,11 @@
       <c r="M18" s="1">
         <v>75.747863247863194</v>
       </c>
-      <c r="N18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" t="s">
-        <v>45</v>
+      <c r="N18" s="4">
+        <v>5.5333333333333302E-3</v>
+      </c>
+      <c r="O18" s="5">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1777,8 +1371,8 @@
       <c r="D19" s="1">
         <v>98.190045248868699</v>
       </c>
-      <c r="E19" t="s">
-        <v>25</v>
+      <c r="E19" s="4">
+        <v>104</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
@@ -1795,8 +1389,8 @@
       <c r="J19" s="1">
         <v>75.464684014869803</v>
       </c>
-      <c r="K19" t="s">
-        <v>30</v>
+      <c r="K19" s="4">
+        <v>103</v>
       </c>
       <c r="L19" s="1">
         <v>2</v>
@@ -1804,11 +1398,11 @@
       <c r="M19" s="1">
         <v>98.989898989898904</v>
       </c>
-      <c r="N19" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
+      <c r="N19" s="4">
+        <v>2.16106666666666</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2.6883333333333301E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1824,8 +1418,8 @@
       <c r="D20" s="1">
         <v>99.907953868644697</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
+      <c r="E20" s="4">
+        <v>2</v>
       </c>
       <c r="F20" s="1">
         <v>9</v>
@@ -1842,8 +1436,8 @@
       <c r="J20" s="1">
         <v>99.911299126637502</v>
       </c>
-      <c r="K20" t="s">
-        <v>15</v>
+      <c r="K20" s="4">
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>7</v>
@@ -1851,11 +1445,11 @@
       <c r="M20" s="1">
         <v>46.153846153846096</v>
       </c>
-      <c r="N20" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" t="s">
-        <v>73</v>
+      <c r="N20" s="4">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1.16666666666666E-4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1871,8 +1465,8 @@
       <c r="D21" s="1">
         <v>96.894409937888199</v>
       </c>
-      <c r="E21" t="s">
-        <v>18</v>
+      <c r="E21" s="4">
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -1889,8 +1483,8 @@
       <c r="J21" s="1">
         <v>97.005988023952099</v>
       </c>
-      <c r="K21" t="s">
-        <v>18</v>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
@@ -1898,11 +1492,11 @@
       <c r="M21" s="1">
         <v>40</v>
       </c>
-      <c r="N21" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" t="s">
-        <v>75</v>
+      <c r="N21" s="4">
+        <v>4.7533333333333302E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1.98333333333333E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1918,8 +1512,8 @@
       <c r="D22" s="1">
         <v>99.876923076923006</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
+      <c r="E22" s="4">
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1936,8 +1530,8 @@
       <c r="J22" s="1">
         <v>88.235294117647001</v>
       </c>
-      <c r="K22" t="s">
-        <v>15</v>
+      <c r="K22" s="4">
+        <v>1</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -1945,11 +1539,11 @@
       <c r="M22" s="1">
         <v>50</v>
       </c>
-      <c r="N22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" t="s">
-        <v>41</v>
+      <c r="N22" s="4">
+        <v>2.13333333333333E-3</v>
+      </c>
+      <c r="O22" s="5">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1965,8 +1559,8 @@
       <c r="D23" s="1">
         <v>99.738630423418698</v>
       </c>
-      <c r="E23" t="s">
-        <v>15</v>
+      <c r="E23" s="4">
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -1983,8 +1577,8 @@
       <c r="J23" s="1">
         <v>99.790466212676805</v>
       </c>
-      <c r="K23" t="s">
-        <v>18</v>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
@@ -1992,11 +1586,11 @@
       <c r="M23" s="1">
         <v>25</v>
       </c>
-      <c r="N23" t="s">
-        <v>77</v>
-      </c>
-      <c r="O23" t="s">
-        <v>78</v>
+      <c r="N23" s="4">
+        <v>1.41666666666666E-3</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1.3333333333333299E-4</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2012,8 +1606,8 @@
       <c r="D24" s="1">
         <v>96.577017114914398</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
+      <c r="E24" s="4">
+        <v>3</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -2030,8 +1624,8 @@
       <c r="J24" s="1">
         <v>56.511056511056502</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
+      <c r="K24" s="4">
+        <v>2</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
@@ -2039,11 +1633,11 @@
       <c r="M24" s="1">
         <v>99.4350282485875</v>
       </c>
-      <c r="N24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>80</v>
+      <c r="N24" s="4">
+        <v>0.30806666666666599</v>
+      </c>
+      <c r="O24" s="5">
+        <v>9.16666666666666E-4</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2059,8 +1653,8 @@
       <c r="D25" s="1">
         <v>98.190045248868699</v>
       </c>
-      <c r="E25" t="s">
-        <v>15</v>
+      <c r="E25" s="4">
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
@@ -2077,8 +1671,8 @@
       <c r="J25" s="1">
         <v>75.615763546797993</v>
       </c>
-      <c r="K25" t="s">
-        <v>18</v>
+      <c r="K25" s="4">
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <v>2</v>
@@ -2086,11 +1680,11 @@
       <c r="M25" s="1">
         <v>98.989898989898904</v>
       </c>
-      <c r="N25" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" t="s">
-        <v>82</v>
+      <c r="N25" s="4">
+        <v>2.4066666666666601E-2</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1.1433333333333301E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2106,8 +1700,8 @@
       <c r="D26" s="1">
         <v>99.485861182519201</v>
       </c>
-      <c r="E26" t="s">
-        <v>23</v>
+      <c r="E26" s="4">
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
@@ -2124,8 +1718,8 @@
       <c r="J26" s="1">
         <v>99.203980099502402</v>
       </c>
-      <c r="K26" t="s">
-        <v>31</v>
+      <c r="K26" s="4">
+        <v>96</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2133,11 +1727,11 @@
       <c r="M26" s="1">
         <v>87.5</v>
       </c>
-      <c r="N26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26" t="s">
-        <v>84</v>
+      <c r="N26" s="4">
+        <v>0.41470000000000001</v>
+      </c>
+      <c r="O26" s="4">
+        <v>5.5916666666666601E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2153,8 +1747,8 @@
       <c r="D27" s="1">
         <v>62.376811594202898</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
+      <c r="E27" s="4">
+        <v>2</v>
       </c>
       <c r="F27" s="1">
         <v>87</v>
@@ -2171,8 +1765,8 @@
       <c r="J27" s="1">
         <v>21.5133644788236</v>
       </c>
-      <c r="K27" t="s">
-        <v>15</v>
+      <c r="K27" s="4">
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>1315</v>
@@ -2180,11 +1774,11 @@
       <c r="M27" s="1">
         <v>87.168227946916403</v>
       </c>
-      <c r="N27" t="s">
-        <v>85</v>
-      </c>
-      <c r="O27" t="s">
-        <v>86</v>
+      <c r="N27" s="4">
+        <v>2.81833333333333E-2</v>
+      </c>
+      <c r="O27" s="5">
+        <v>6.6666666666666599E-4</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2200,8 +1794,8 @@
       <c r="D28" s="1">
         <v>99.416058394160501</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
+      <c r="E28" s="4">
+        <v>2</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2218,8 +1812,8 @@
       <c r="J28" s="1">
         <v>94.458438287153598</v>
       </c>
-      <c r="K28" t="s">
-        <v>15</v>
+      <c r="K28" s="4">
+        <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>34</v>
@@ -2227,11 +1821,11 @@
       <c r="M28" s="1">
         <v>22.727272727272702</v>
       </c>
-      <c r="N28" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" t="s">
-        <v>86</v>
+      <c r="N28" s="4">
+        <v>2.29E-2</v>
+      </c>
+      <c r="O28" s="5">
+        <v>6.6666666666666599E-4</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2247,8 +1841,8 @@
       <c r="D29" s="1">
         <v>98.753541076487195</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
+      <c r="E29" s="4">
+        <v>2</v>
       </c>
       <c r="F29" s="1">
         <v>14</v>
@@ -2265,8 +1859,8 @@
       <c r="J29" s="1">
         <v>98.201236649803207</v>
       </c>
-      <c r="K29" t="s">
-        <v>15</v>
+      <c r="K29" s="4">
+        <v>1</v>
       </c>
       <c r="L29" s="1">
         <v>16</v>
@@ -2274,11 +1868,11 @@
       <c r="M29" s="1">
         <v>75</v>
       </c>
-      <c r="N29" t="s">
-        <v>88</v>
-      </c>
-      <c r="O29" t="s">
-        <v>89</v>
+      <c r="N29" s="4">
+        <v>2.4549999999999999E-2</v>
+      </c>
+      <c r="O29" s="5">
+        <v>2.6666666666666597E-4</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2294,8 +1888,8 @@
       <c r="D30" s="1">
         <v>93.677419354838705</v>
       </c>
-      <c r="E30" t="s">
-        <v>26</v>
+      <c r="E30" s="4">
+        <v>11</v>
       </c>
       <c r="F30" s="1">
         <v>15</v>
@@ -2312,8 +1906,8 @@
       <c r="J30" s="1">
         <v>98.196948682385496</v>
       </c>
-      <c r="K30" t="s">
-        <v>18</v>
+      <c r="K30" s="4">
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>9</v>
@@ -2321,11 +1915,11 @@
       <c r="M30" s="1">
         <v>30.769230769230699</v>
       </c>
-      <c r="N30" t="s">
-        <v>90</v>
-      </c>
-      <c r="O30" t="s">
-        <v>91</v>
+      <c r="N30" s="4">
+        <v>0.27551666666666602</v>
+      </c>
+      <c r="O30" s="4">
+        <v>3.635E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2341,8 +1935,8 @@
       <c r="D31" s="1">
         <v>99.922937330648494</v>
       </c>
-      <c r="E31" t="s">
-        <v>26</v>
+      <c r="E31" s="4">
+        <v>11</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
@@ -2359,8 +1953,8 @@
       <c r="J31" s="1">
         <v>99.864820770987706</v>
       </c>
-      <c r="K31" t="s">
-        <v>18</v>
+      <c r="K31" s="4">
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -2368,11 +1962,11 @@
       <c r="M31" s="1">
         <v>96.551724137931004</v>
       </c>
-      <c r="N31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O31" t="s">
-        <v>93</v>
+      <c r="N31" s="4">
+        <v>3.07453333333333</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1.3116666666666599E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2388,8 +1982,8 @@
       <c r="D32" s="1">
         <v>95.726495726495699</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
+      <c r="E32" s="4">
+        <v>2</v>
       </c>
       <c r="F32" s="1">
         <v>9</v>
@@ -2406,8 +2000,8 @@
       <c r="J32" s="1">
         <v>91.338582677165306</v>
       </c>
-      <c r="K32" t="s">
-        <v>32</v>
+      <c r="K32" s="4">
+        <v>17</v>
       </c>
       <c r="L32" s="1">
         <v>8</v>
@@ -2415,11 +2009,11 @@
       <c r="M32" s="1">
         <v>63.636363636363598</v>
       </c>
-      <c r="N32" t="s">
-        <v>94</v>
-      </c>
-      <c r="O32" t="s">
-        <v>95</v>
+      <c r="N32" s="4">
+        <v>1.6166666666666599E-3</v>
+      </c>
+      <c r="O32" s="5">
+        <v>4.6666666666666601E-4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2435,8 +2029,8 @@
       <c r="D33" s="1">
         <v>90.958230958230899</v>
       </c>
-      <c r="E33" t="s">
-        <v>15</v>
+      <c r="E33" s="4">
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>257</v>
@@ -2453,8 +2047,8 @@
       <c r="J33" s="1">
         <v>94.308819041806501</v>
       </c>
-      <c r="K33" t="s">
-        <v>15</v>
+      <c r="K33" s="4">
+        <v>1</v>
       </c>
       <c r="L33" s="1">
         <v>178</v>
@@ -2462,11 +2056,11 @@
       <c r="M33" s="1">
         <v>52.278820375335101</v>
       </c>
-      <c r="N33" t="s">
-        <v>96</v>
-      </c>
-      <c r="O33" t="s">
-        <v>97</v>
+      <c r="N33" s="4">
+        <v>1.9166666666666599E-2</v>
+      </c>
+      <c r="O33" s="4">
+        <v>4.6833333333333301E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2482,8 +2076,8 @@
       <c r="D34" s="1">
         <v>99.976749593117802</v>
       </c>
-      <c r="E34" t="s">
-        <v>21</v>
+      <c r="E34" s="4">
+        <v>4</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2500,8 +2094,8 @@
       <c r="J34" s="1">
         <v>99.953287399275894</v>
       </c>
-      <c r="K34" t="s">
-        <v>21</v>
+      <c r="K34" s="4">
+        <v>4</v>
       </c>
       <c r="L34" s="1">
         <v>3</v>
@@ -2509,11 +2103,11 @@
       <c r="M34" s="1">
         <v>25</v>
       </c>
-      <c r="N34" t="s">
-        <v>98</v>
-      </c>
-      <c r="O34" t="s">
-        <v>99</v>
+      <c r="N34" s="4">
+        <v>5.5666666666666599E-3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>2.8833333333333302E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2529,8 +2123,8 @@
       <c r="D35" s="1">
         <v>87.320436697950498</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
+      <c r="E35" s="4">
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2547,8 +2141,8 @@
       <c r="J35" s="1">
         <v>78.250352751461307</v>
       </c>
-      <c r="K35" t="s">
-        <v>18</v>
+      <c r="K35" s="4">
+        <v>0</v>
       </c>
       <c r="L35" s="1">
         <v>4</v>
@@ -2556,11 +2150,11 @@
       <c r="M35" s="1">
         <v>99.629286376274294</v>
       </c>
-      <c r="N35" t="s">
-        <v>100</v>
-      </c>
-      <c r="O35" t="s">
-        <v>67</v>
+      <c r="N35" s="4">
+        <v>2.1833333333333301E-3</v>
+      </c>
+      <c r="O35" s="5">
+        <v>1.66666666666666E-5</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2576,8 +2170,8 @@
       <c r="D36" s="1">
         <v>95.8374628344896</v>
       </c>
-      <c r="E36" t="s">
-        <v>18</v>
+      <c r="E36" s="4">
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>42</v>
@@ -2594,8 +2188,8 @@
       <c r="J36" s="1">
         <v>94.915254237288096</v>
       </c>
-      <c r="K36" t="s">
-        <v>18</v>
+      <c r="K36" s="4">
+        <v>0</v>
       </c>
       <c r="L36" s="1">
         <v>3</v>
@@ -2603,11 +2197,11 @@
       <c r="M36" s="1">
         <v>75</v>
       </c>
-      <c r="N36" t="s">
-        <v>101</v>
-      </c>
-      <c r="O36" t="s">
-        <v>102</v>
+      <c r="N36" s="4">
+        <v>0.142116666666666</v>
+      </c>
+      <c r="O36" s="4">
+        <v>4.7966666666666602E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2623,8 +2217,8 @@
       <c r="D37" s="1">
         <v>95.8752695902228</v>
       </c>
-      <c r="E37" t="s">
-        <v>15</v>
+      <c r="E37" s="4">
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -2641,8 +2235,8 @@
       <c r="J37" s="1">
         <v>85.826345685691095</v>
       </c>
-      <c r="K37" t="s">
-        <v>18</v>
+      <c r="K37" s="4">
+        <v>0</v>
       </c>
       <c r="L37" s="1">
         <v>2</v>
@@ -2650,11 +2244,11 @@
       <c r="M37" s="1">
         <v>99.872773536895593</v>
       </c>
-      <c r="N37" t="s">
-        <v>103</v>
-      </c>
-      <c r="O37" t="s">
-        <v>104</v>
+      <c r="N37" s="4">
+        <v>5.3483333333333299E-2</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2670,8 +2264,8 @@
       <c r="D38" s="1">
         <v>99.972877678329198</v>
       </c>
-      <c r="E38" t="s">
-        <v>14</v>
+      <c r="E38" s="4">
+        <v>2</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
@@ -2688,8 +2282,8 @@
       <c r="J38" s="1">
         <v>86.280176810608594</v>
       </c>
-      <c r="K38" t="s">
-        <v>18</v>
+      <c r="K38" s="4">
+        <v>0</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -2697,11 +2291,11 @@
       <c r="M38" s="1">
         <v>99.938042131350599</v>
       </c>
-      <c r="N38" t="s">
-        <v>105</v>
-      </c>
-      <c r="O38" t="s">
-        <v>51</v>
+      <c r="N38" s="4">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="O38" s="5">
+        <v>2.1666666666666601E-4</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2717,8 +2311,8 @@
       <c r="D39" s="1">
         <v>96.302665520206304</v>
       </c>
-      <c r="E39" t="s">
-        <v>22</v>
+      <c r="E39" s="4">
+        <v>58</v>
       </c>
       <c r="F39" s="1">
         <v>42</v>
@@ -2735,8 +2329,8 @@
       <c r="J39" s="1">
         <v>96.5699208443271</v>
       </c>
-      <c r="K39" t="s">
-        <v>33</v>
+      <c r="K39" s="4">
+        <v>42</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -2744,11 +2338,11 @@
       <c r="M39" s="1">
         <v>76.923076923076906</v>
       </c>
-      <c r="N39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O39" t="s">
-        <v>107</v>
+      <c r="N39" s="4">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="O39" s="4">
+        <v>7.5666666666666599E-3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2764,8 +2358,8 @@
       <c r="D40" s="1">
         <v>86.900958466453602</v>
       </c>
-      <c r="E40" t="s">
-        <v>15</v>
+      <c r="E40" s="4">
+        <v>1</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -2782,8 +2376,8 @@
       <c r="J40" s="1">
         <v>79.016026835631706</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
+      <c r="K40" s="4">
+        <v>2</v>
       </c>
       <c r="L40" s="1">
         <v>3</v>
@@ -2791,11 +2385,11 @@
       <c r="M40" s="1">
         <v>99.467140319715796</v>
       </c>
-      <c r="N40" t="s">
-        <v>108</v>
-      </c>
-      <c r="O40" t="s">
-        <v>109</v>
+      <c r="N40" s="4">
+        <v>2.2666666666666599E-3</v>
+      </c>
+      <c r="O40" s="5">
+        <v>6.1666666666666597E-4</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2811,8 +2405,8 @@
       <c r="D41" s="1">
         <v>98.017717744057506</v>
       </c>
-      <c r="E41" t="s">
-        <v>15</v>
+      <c r="E41" s="4">
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>43</v>
@@ -2829,8 +2423,8 @@
       <c r="J41" s="1">
         <v>81.535181236673694</v>
       </c>
-      <c r="K41" t="s">
-        <v>18</v>
+      <c r="K41" s="4">
+        <v>0</v>
       </c>
       <c r="L41" s="1">
         <v>36</v>
@@ -2838,11 +2432,11 @@
       <c r="M41" s="1">
         <v>91.685912240184706</v>
       </c>
-      <c r="N41" t="s">
-        <v>110</v>
-      </c>
-      <c r="O41" t="s">
-        <v>109</v>
+      <c r="N41" s="4">
+        <v>2.5383333333333299E-2</v>
+      </c>
+      <c r="O41" s="5">
+        <v>6.1666666666666597E-4</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2858,8 +2452,8 @@
       <c r="D42" s="1">
         <v>61.911902530459201</v>
       </c>
-      <c r="E42" t="s">
-        <v>14</v>
+      <c r="E42" s="4">
+        <v>2</v>
       </c>
       <c r="F42" s="1">
         <v>29</v>
@@ -2876,8 +2470,8 @@
       <c r="J42" s="1">
         <v>64.1895681435782</v>
       </c>
-      <c r="K42" t="s">
-        <v>15</v>
+      <c r="K42" s="4">
+        <v>1</v>
       </c>
       <c r="L42" s="1">
         <v>18</v>
@@ -2885,11 +2479,11 @@
       <c r="M42" s="1">
         <v>98.590446358653097</v>
       </c>
-      <c r="N42" t="s">
-        <v>111</v>
-      </c>
-      <c r="O42" t="s">
-        <v>112</v>
+      <c r="N42" s="4">
+        <v>2.1239666666666599</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2905,8 +2499,8 @@
       <c r="D43" s="1">
         <v>97.347740667976396</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
+      <c r="E43" s="4">
+        <v>2</v>
       </c>
       <c r="F43" s="1">
         <v>13</v>
@@ -2923,8 +2517,8 @@
       <c r="J43" s="1">
         <v>96.521739130434696</v>
       </c>
-      <c r="K43" t="s">
-        <v>14</v>
+      <c r="K43" s="4">
+        <v>2</v>
       </c>
       <c r="L43" s="1">
         <v>4</v>
@@ -2932,11 +2526,11 @@
       <c r="M43" s="1">
         <v>83.3333333333333</v>
       </c>
-      <c r="N43" t="s">
-        <v>113</v>
-      </c>
-      <c r="O43" t="s">
-        <v>114</v>
+      <c r="N43" s="4">
+        <v>1.7526166666666601</v>
+      </c>
+      <c r="O43" s="5">
+        <v>3.5E-4</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2952,8 +2546,8 @@
       <c r="D44" s="1">
         <v>95.498392282958207</v>
       </c>
-      <c r="E44" t="s">
-        <v>17</v>
+      <c r="E44" s="4">
+        <v>3</v>
       </c>
       <c r="F44" s="1">
         <v>5</v>
@@ -2970,8 +2564,8 @@
       <c r="J44" s="1">
         <v>77.419354838709594</v>
       </c>
-      <c r="K44" t="s">
-        <v>17</v>
+      <c r="K44" s="4">
+        <v>3</v>
       </c>
       <c r="L44" s="1">
         <v>5</v>
@@ -2979,11 +2573,11 @@
       <c r="M44" s="1">
         <v>64.285714285714207</v>
       </c>
-      <c r="N44" t="s">
-        <v>115</v>
-      </c>
-      <c r="O44" t="s">
-        <v>116</v>
+      <c r="N44" s="4">
+        <v>0.60366666666666602</v>
+      </c>
+      <c r="O44" s="4">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2999,8 +2593,8 @@
       <c r="D45" s="1">
         <v>79.139967575079098</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
+      <c r="E45" s="4">
+        <v>2</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -3017,8 +2611,8 @@
       <c r="J45" s="1">
         <v>95.986024213861995</v>
       </c>
-      <c r="K45" t="s">
-        <v>18</v>
+      <c r="K45" s="4">
+        <v>0</v>
       </c>
       <c r="L45" s="1">
         <v>60</v>
@@ -3026,11 +2620,11 @@
       <c r="M45" s="1">
         <v>95.951417004048494</v>
       </c>
-      <c r="N45" t="s">
-        <v>117</v>
-      </c>
-      <c r="O45" t="s">
-        <v>118</v>
+      <c r="N45" s="4">
+        <v>6.8166666666666601E-3</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1.1833333333333301E-3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -3046,8 +2640,8 @@
       <c r="D46" s="1">
         <v>77.297297297297206</v>
       </c>
-      <c r="E46" t="s">
-        <v>18</v>
+      <c r="E46" s="4">
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>111</v>
@@ -3064,8 +2658,8 @@
       <c r="J46" s="1">
         <v>89.451476793248901</v>
       </c>
-      <c r="K46" t="s">
-        <v>15</v>
+      <c r="K46" s="4">
+        <v>1</v>
       </c>
       <c r="L46" s="1">
         <v>5</v>
@@ -3073,11 +2667,11 @@
       <c r="M46" s="1">
         <v>90</v>
       </c>
-      <c r="N46" t="s">
-        <v>119</v>
-      </c>
-      <c r="O46" t="s">
-        <v>68</v>
+      <c r="N46" s="4">
+        <v>8.9613666666666596</v>
+      </c>
+      <c r="O46" s="5">
+        <v>4.3333333333333299E-4</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3093,8 +2687,8 @@
       <c r="D47" s="1">
         <v>99.949051076296001</v>
       </c>
-      <c r="E47" t="s">
-        <v>14</v>
+      <c r="E47" s="4">
+        <v>2</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -3111,8 +2705,8 @@
       <c r="J47" s="1">
         <v>77.017778627413406</v>
       </c>
-      <c r="K47" t="s">
-        <v>14</v>
+      <c r="K47" s="4">
+        <v>2</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
@@ -3120,11 +2714,11 @@
       <c r="M47" s="1">
         <v>99.983363832972799</v>
       </c>
-      <c r="N47" t="s">
-        <v>120</v>
-      </c>
-      <c r="O47" t="s">
-        <v>95</v>
+      <c r="N47" s="4">
+        <v>2.3499999999999901E-3</v>
+      </c>
+      <c r="O47" s="5">
+        <v>4.6666666666666601E-4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -3140,8 +2734,8 @@
       <c r="D48" s="1">
         <v>92.047589229805794</v>
       </c>
-      <c r="E48" t="s">
-        <v>23</v>
+      <c r="E48" s="4">
+        <v>6</v>
       </c>
       <c r="F48" s="1">
         <v>20</v>
@@ -3158,8 +2752,8 @@
       <c r="J48" s="1">
         <v>93.206349206349202</v>
       </c>
-      <c r="K48" t="s">
-        <v>23</v>
+      <c r="K48" s="4">
+        <v>6</v>
       </c>
       <c r="L48" s="1">
         <v>26</v>
@@ -3167,11 +2761,11 @@
       <c r="M48" s="1">
         <v>75.700934579439206</v>
       </c>
-      <c r="N48" t="s">
-        <v>121</v>
-      </c>
-      <c r="O48" t="s">
-        <v>122</v>
+      <c r="N48" s="4">
+        <v>54.037100000000002</v>
+      </c>
+      <c r="O48" s="4">
+        <v>1.1166666666666599E-3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3187,8 +2781,8 @@
       <c r="D49" s="1">
         <v>99.679686092370503</v>
       </c>
-      <c r="E49" t="s">
-        <v>23</v>
+      <c r="E49" s="4">
+        <v>6</v>
       </c>
       <c r="F49" s="1">
         <v>104</v>
@@ -3205,8 +2799,8 @@
       <c r="J49" s="1">
         <v>94.072249589490895</v>
       </c>
-      <c r="K49" t="s">
-        <v>21</v>
+      <c r="K49" s="4">
+        <v>4</v>
       </c>
       <c r="L49" s="1">
         <v>28</v>
@@ -3214,11 +2808,11 @@
       <c r="M49" s="1">
         <v>96.121883656509695</v>
       </c>
-      <c r="N49" t="s">
-        <v>123</v>
-      </c>
-      <c r="O49" t="s">
-        <v>124</v>
+      <c r="N49" s="4">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="O49" s="4">
+        <v>4.7133333333333298E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3234,8 +2828,8 @@
       <c r="D50" s="1">
         <v>96.153846153846104</v>
       </c>
-      <c r="E50" t="s">
-        <v>15</v>
+      <c r="E50" s="4">
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>15</v>
@@ -3252,8 +2846,8 @@
       <c r="J50" s="1">
         <v>95.221027479091902</v>
       </c>
-      <c r="K50" t="s">
-        <v>17</v>
+      <c r="K50" s="4">
+        <v>3</v>
       </c>
       <c r="L50" s="1">
         <v>11</v>
@@ -3261,11 +2855,11 @@
       <c r="M50" s="1">
         <v>72.5</v>
       </c>
-      <c r="N50" t="s">
-        <v>125</v>
-      </c>
-      <c r="O50" t="s">
-        <v>126</v>
+      <c r="N50" s="4">
+        <v>3.61666666666666E-3</v>
+      </c>
+      <c r="O50" s="5">
+        <v>5.8333333333333295E-4</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3281,8 +2875,8 @@
       <c r="D51" s="1">
         <v>96.3541666666666</v>
       </c>
-      <c r="E51" t="s">
-        <v>15</v>
+      <c r="E51" s="4">
+        <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>40</v>
@@ -3299,8 +2893,8 @@
       <c r="J51" s="1">
         <v>96.833773087071194</v>
       </c>
-      <c r="K51" t="s">
-        <v>15</v>
+      <c r="K51" s="4">
+        <v>1</v>
       </c>
       <c r="L51" s="1">
         <v>1</v>
@@ -3308,11 +2902,11 @@
       <c r="M51" s="1">
         <v>91.6666666666666</v>
       </c>
-      <c r="N51" t="s">
-        <v>127</v>
-      </c>
-      <c r="O51" t="s">
-        <v>128</v>
+      <c r="N51" s="4">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="O51" s="5">
+        <v>7.3333333333333302E-4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -3328,8 +2922,8 @@
       <c r="D52" s="1">
         <v>71.091035441278606</v>
       </c>
-      <c r="E52" t="s">
-        <v>15</v>
+      <c r="E52" s="4">
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -3346,8 +2940,8 @@
       <c r="J52" s="1">
         <v>60.091100210231197</v>
       </c>
-      <c r="K52" t="s">
-        <v>18</v>
+      <c r="K52" s="4">
+        <v>0</v>
       </c>
       <c r="L52" s="1">
         <v>2</v>
@@ -3355,11 +2949,11 @@
       <c r="M52" s="1">
         <v>99.8244073748902</v>
       </c>
-      <c r="N52" t="s">
-        <v>129</v>
-      </c>
-      <c r="O52" t="s">
-        <v>130</v>
+      <c r="N52" s="4">
+        <v>4.6433333333333299E-2</v>
+      </c>
+      <c r="O52" s="4">
+        <v>1.71833333333333E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -3375,8 +2969,8 @@
       <c r="D53" s="1">
         <v>71.408695652173904</v>
       </c>
-      <c r="E53" t="s">
-        <v>16</v>
+      <c r="E53" s="4">
+        <v>8</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -3393,8 +2987,8 @@
       <c r="J53" s="1">
         <v>55.866900175131299</v>
       </c>
-      <c r="K53" t="s">
-        <v>26</v>
+      <c r="K53" s="4">
+        <v>11</v>
       </c>
       <c r="L53" s="1">
         <v>1</v>
@@ -3402,11 +2996,11 @@
       <c r="M53" s="1">
         <v>99.920634920634896</v>
       </c>
-      <c r="N53" t="s">
-        <v>131</v>
-      </c>
-      <c r="O53" t="s">
-        <v>108</v>
+      <c r="N53" s="4">
+        <v>2.8383333333333299E-2</v>
+      </c>
+      <c r="O53" s="4">
+        <v>2.2666666666666599E-3</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -3422,8 +3016,8 @@
       <c r="D54" s="1">
         <v>94.733320588797497</v>
       </c>
-      <c r="E54" t="s">
-        <v>27</v>
+      <c r="E54" s="4">
+        <v>31</v>
       </c>
       <c r="F54" s="1">
         <v>11</v>
@@ -3440,8 +3034,8 @@
       <c r="J54" s="1">
         <v>64.596570009076501</v>
       </c>
-      <c r="K54" t="s">
-        <v>18</v>
+      <c r="K54" s="4">
+        <v>0</v>
       </c>
       <c r="L54" s="1">
         <v>15</v>
@@ -3449,11 +3043,11 @@
       <c r="M54" s="1">
         <v>99.797598164890005</v>
       </c>
-      <c r="N54" t="s">
-        <v>132</v>
-      </c>
-      <c r="O54" t="s">
-        <v>133</v>
+      <c r="N54" s="4">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="O54" s="4">
+        <v>3.1883333333333298E-2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -3469,8 +3063,8 @@
       <c r="D55" s="1">
         <v>99.980622032748698</v>
       </c>
-      <c r="E55" t="s">
-        <v>15</v>
+      <c r="E55" s="4">
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -3487,8 +3081,8 @@
       <c r="J55" s="1">
         <v>78.232842186894104</v>
       </c>
-      <c r="K55" t="s">
-        <v>18</v>
+      <c r="K55" s="4">
+        <v>0</v>
       </c>
       <c r="L55" s="1">
         <v>2</v>
@@ -3496,11 +3090,11 @@
       <c r="M55" s="1">
         <v>99.955466488532593</v>
       </c>
-      <c r="N55" t="s">
-        <v>134</v>
-      </c>
-      <c r="O55" t="s">
-        <v>67</v>
+      <c r="N55" s="4">
+        <v>1.48333333333333E-3</v>
+      </c>
+      <c r="O55" s="5">
+        <v>1.66666666666666E-5</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3516,8 +3110,8 @@
       <c r="D56" s="1">
         <v>93.613581244947397</v>
       </c>
-      <c r="E56" t="s">
-        <v>28</v>
+      <c r="E56" s="4">
+        <v>5</v>
       </c>
       <c r="F56" s="1">
         <v>9</v>
@@ -3534,8 +3128,8 @@
       <c r="J56" s="1">
         <v>69.443163477057794</v>
       </c>
-      <c r="K56" t="s">
-        <v>17</v>
+      <c r="K56" s="4">
+        <v>3</v>
       </c>
       <c r="L56" s="1">
         <v>40</v>
@@ -3543,11 +3137,11 @@
       <c r="M56" s="1">
         <v>99.245425391435504</v>
       </c>
-      <c r="N56" t="s">
-        <v>135</v>
-      </c>
-      <c r="O56" t="s">
-        <v>136</v>
+      <c r="N56" s="4">
+        <v>9.8999999999999904E-3</v>
+      </c>
+      <c r="O56" s="4">
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3563,8 +3157,8 @@
       <c r="D57" s="1">
         <v>98.040560399725607</v>
       </c>
-      <c r="E57" t="s">
-        <v>15</v>
+      <c r="E57" s="4">
+        <v>1</v>
       </c>
       <c r="F57" s="1">
         <v>26</v>
@@ -3581,8 +3175,8 @@
       <c r="J57" s="1">
         <v>24.397442203639901</v>
       </c>
-      <c r="K57" t="s">
-        <v>18</v>
+      <c r="K57" s="4">
+        <v>0</v>
       </c>
       <c r="L57" s="1">
         <v>184</v>
@@ -3590,11 +3184,11 @@
       <c r="M57" s="1">
         <v>97.605725439167202</v>
       </c>
-      <c r="N57" t="s">
-        <v>137</v>
-      </c>
-      <c r="O57" t="s">
-        <v>68</v>
+      <c r="N57" s="4">
+        <v>4.4696499999999997</v>
+      </c>
+      <c r="O57" s="5">
+        <v>4.3333333333333299E-4</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3610,8 +3204,8 @@
       <c r="D58" s="1">
         <v>99.981720970616394</v>
       </c>
-      <c r="E58" t="s">
-        <v>18</v>
+      <c r="E58" s="4">
+        <v>0</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -3628,8 +3222,8 @@
       <c r="J58" s="1">
         <v>69.103460887852606</v>
       </c>
-      <c r="K58" t="s">
-        <v>18</v>
+      <c r="K58" s="4">
+        <v>0</v>
       </c>
       <c r="L58" s="1">
         <v>2</v>
@@ -3637,11 +3231,11 @@
       <c r="M58" s="1">
         <v>99.970405445398001</v>
       </c>
-      <c r="N58" t="s">
-        <v>138</v>
-      </c>
-      <c r="O58" t="s">
-        <v>139</v>
+      <c r="N58" s="4">
+        <v>7.5814666666666604</v>
+      </c>
+      <c r="O58" s="4">
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -3657,8 +3251,8 @@
       <c r="D59" s="1">
         <v>69.951923076922995</v>
       </c>
-      <c r="E59" t="s">
-        <v>15</v>
+      <c r="E59" s="4">
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>111</v>
@@ -3675,8 +3269,8 @@
       <c r="J59" s="1">
         <v>85.373134328358205</v>
       </c>
-      <c r="K59" t="s">
-        <v>15</v>
+      <c r="K59" s="4">
+        <v>1</v>
       </c>
       <c r="L59" s="1">
         <v>5</v>
@@ -3684,11 +3278,11 @@
       <c r="M59" s="1">
         <v>89.7959183673469</v>
       </c>
-      <c r="N59" t="s">
-        <v>140</v>
-      </c>
-      <c r="O59" t="s">
-        <v>141</v>
+      <c r="N59" s="4">
+        <v>0.54589999999999905</v>
+      </c>
+      <c r="O59" s="4">
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3704,8 +3298,8 @@
       <c r="D60" s="1">
         <v>99.187652315190903</v>
       </c>
-      <c r="E60" t="s">
-        <v>14</v>
+      <c r="E60" s="4">
+        <v>2</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -3722,8 +3316,8 @@
       <c r="J60" s="1">
         <v>99.515287099179702</v>
       </c>
-      <c r="K60" t="s">
-        <v>35</v>
+      <c r="K60" s="4">
+        <v>10</v>
       </c>
       <c r="L60" s="1">
         <v>4</v>
@@ -3731,11 +3325,11 @@
       <c r="M60" s="1">
         <v>69.230769230769198</v>
       </c>
-      <c r="N60" t="s">
-        <v>142</v>
-      </c>
-      <c r="O60" t="s">
-        <v>143</v>
+      <c r="N60" s="4">
+        <v>3.7333333333333298E-3</v>
+      </c>
+      <c r="O60" s="4">
+        <v>1.33333333333333E-3</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3751,8 +3345,8 @@
       <c r="D61" s="1">
         <v>77.638640429338096</v>
       </c>
-      <c r="E61" t="s">
-        <v>15</v>
+      <c r="E61" s="4">
+        <v>1</v>
       </c>
       <c r="F61" s="1">
         <v>109</v>
@@ -3769,8 +3363,8 @@
       <c r="J61" s="1">
         <v>89.7489539748954</v>
       </c>
-      <c r="K61" t="s">
-        <v>36</v>
+      <c r="K61" s="4">
+        <v>45</v>
       </c>
       <c r="L61" s="1">
         <v>3</v>
@@ -3778,11 +3372,11 @@
       <c r="M61" s="1">
         <v>93.877551020408106</v>
       </c>
-      <c r="N61" t="s">
-        <v>39</v>
-      </c>
-      <c r="O61" t="s">
-        <v>67</v>
+      <c r="N61" s="5">
+        <v>3.3333333333333301E-5</v>
+      </c>
+      <c r="O61" s="5">
+        <v>1.66666666666666E-5</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3798,8 +3392,8 @@
       <c r="D62" s="1">
         <v>81.614349775784703</v>
       </c>
-      <c r="E62" t="s">
-        <v>14</v>
+      <c r="E62" s="4">
+        <v>2</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
@@ -3816,8 +3410,8 @@
       <c r="J62" s="1">
         <v>88.235294117647001</v>
       </c>
-      <c r="K62" t="s">
-        <v>37</v>
+      <c r="K62" s="4">
+        <v>815</v>
       </c>
       <c r="L62" s="1">
         <v>2</v>
@@ -3825,11 +3419,11 @@
       <c r="M62" s="1">
         <v>90.909090909090907</v>
       </c>
-      <c r="N62" t="s">
-        <v>144</v>
-      </c>
-      <c r="O62" t="s">
-        <v>145</v>
+      <c r="N62" s="4">
+        <v>4.7833333333333304E-3</v>
+      </c>
+      <c r="O62" s="5">
+        <v>5.3333333333333303E-4</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3845,8 +3439,8 @@
       <c r="D63" s="1">
         <v>96.721311475409806</v>
       </c>
-      <c r="E63" t="s">
-        <v>14</v>
+      <c r="E63" s="4">
+        <v>2</v>
       </c>
       <c r="F63" s="1">
         <v>2</v>
@@ -3863,8 +3457,8 @@
       <c r="J63" s="1">
         <v>96.6666666666666</v>
       </c>
-      <c r="K63" t="s">
-        <v>34</v>
+      <c r="K63" s="4">
+        <v>22</v>
       </c>
       <c r="L63" s="1">
         <v>2</v>
@@ -3872,11 +3466,11 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" t="s">
-        <v>146</v>
-      </c>
-      <c r="O63" t="s">
-        <v>147</v>
+      <c r="N63" s="4">
+        <v>4.9419666666666604</v>
+      </c>
+      <c r="O63" s="4">
+        <v>6.9166666666666604E-3</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3892,8 +3486,8 @@
       <c r="D64" s="1">
         <v>97.872340425531902</v>
       </c>
-      <c r="E64" t="s">
-        <v>18</v>
+      <c r="E64" s="4">
+        <v>0</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
@@ -3910,8 +3504,8 @@
       <c r="J64" s="1">
         <v>79.259259259259196</v>
       </c>
-      <c r="K64" t="s">
-        <v>18</v>
+      <c r="K64" s="4">
+        <v>0</v>
       </c>
       <c r="L64" s="1">
         <v>3</v>
@@ -3919,11 +3513,11 @@
       <c r="M64" s="1">
         <v>94.642857142857096</v>
       </c>
-      <c r="N64" t="s">
-        <v>148</v>
-      </c>
-      <c r="O64" t="s">
-        <v>149</v>
+      <c r="N64" s="5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1.8333333333333301E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3952,49 +3546,49 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="R1" s="2"/>
     </row>
